--- a/prom1.xlsx
+++ b/prom1.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A888DE2-F619-497D-B41F-FD013BFE3AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">лист1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">лист1!$1:$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,68 +28,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Код ОКВЭД</t>
+    <t>Код ОКВЭД</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕЛЬСКОЕ ХОЗЯЙСТВО, ОХОТА И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
+    <t>ДОБЫЧА КАМЕННОГО УГЛЯ, БУРОГО УГЛЯ И ТОРФА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛЕСНОЕ ХОЗЯЙСТВО,ЛЕСОЗАГОТОВКИ И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТОЙ ОБЛАСТИ</t>
+    <t>ДОБЫЧА СЫРОЙ НЕФТИ И ПРИРОДНОГО ГАЗА; ПРЕДОСТАВЛЕНИЕ УСЛУГ В  ЭТИХ ОБЛАСТЯХ</t>
   </si>
   <si>
-    <t xml:space="preserve">РЫБОЛОВСТВО, РЫБОВОДСТВО И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
+    <t>ДОБЫЧА УРАНОВОЙ И ТОРИЕВОЙ РУД</t>
   </si>
   <si>
-    <t xml:space="preserve">ДОБЫЧА КАМЕННОГО УГЛЯ, БУРОГО УГЛЯ И ТОРФА</t>
+    <t>ДОБЫЧА МЕТАЛЛИЧЕСКИХ РУД</t>
   </si>
   <si>
-    <t xml:space="preserve">ДОБЫЧА СЫРОЙ НЕФТИ И ПРИРОДНОГО ГАЗА; ПРЕДОСТАВЛЕНИЕ УСЛУГ В  ЭТИХ ОБЛАСТЯХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОБЫЧА УРАНОВОЙ И ТОРИЕВОЙ РУД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОБЫЧА МЕТАЛЛИЧЕСКИХ РУД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОБЫЧА ПРОЧИХ ПОЛЕЗНЫХ ИСКОПАЕМЫХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОИЗВОДСТВО ПИЩЕВЫХ ПРОДУКТОВ, ВКЛЮЧАЯ НАПИТКИ</t>
+    <t>ДОБЫЧА ПРОЧИХ ПОЛЕЗНЫХ ИСКОПАЕМЫХ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
-      <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,166 +89,132 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -326,322 +267,249 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IW55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="10" style="1" width="9.14"/>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="257" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="4">
         <v>2010</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="4">
         <v>2011</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="4">
         <v>2012</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="4">
         <v>2013</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="4">
         <v>2014</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="4">
         <v>2015</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>105.28438613553</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>85.8364958908898</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>108.939509232377</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>77.6603743651965</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>95.9537736249463</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>90.8713193264847</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>118.876658147038</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
+        <v>88.972986826487698</v>
+      </c>
+      <c r="D2" s="7">
+        <v>140.21333427359801</v>
+      </c>
+      <c r="E2" s="7">
+        <v>116.217548530375</v>
+      </c>
+      <c r="F2" s="7">
+        <v>98.794104400083199</v>
+      </c>
+      <c r="G2" s="7">
+        <v>51.699820201497097</v>
+      </c>
+      <c r="H2" s="7">
+        <v>157.938078186285</v>
+      </c>
+      <c r="I2" s="7">
+        <v>102.076285913281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>99.453142326023993</v>
+      </c>
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>95.8754826249248</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>37.7539196352984</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>12.1936314749695</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>24.3105462338015</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="7">
+        <v>89.672924290306398</v>
+      </c>
+      <c r="F3" s="7">
+        <v>96.851787957536501</v>
+      </c>
+      <c r="G3" s="7">
+        <v>109.43941336495401</v>
+      </c>
+      <c r="H3" s="7">
+        <v>98.4868865372313</v>
+      </c>
+      <c r="I3" s="7">
+        <v>82.451855882717595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>123.210600845219</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>145.556032599614</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>68.0261283238264</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>71.10690936828</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>94.3985164470394</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>179.730892942809</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7">
+        <v>139.155311205598</v>
+      </c>
+      <c r="D4" s="7">
+        <v>55.733366288235402</v>
+      </c>
+      <c r="E4" s="7">
+        <v>169.90504433138199</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45691</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.7782654746083697</v>
+      </c>
+      <c r="H4" s="7">
+        <v>81.575167989218698</v>
+      </c>
+      <c r="I4" s="7">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>88.9729868264877</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>140.213334273598</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>116.217548530375</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>98.7941044000832</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>51.6998202014971</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>157.938078186285</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>102.076285913281</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7">
+        <v>155.66508405208899</v>
+      </c>
+      <c r="D5" s="7">
+        <v>88.7403960742175</v>
+      </c>
+      <c r="E5" s="7">
+        <v>146.18927291052199</v>
+      </c>
+      <c r="F5" s="7">
+        <v>72.336215535268096</v>
+      </c>
+      <c r="G5" s="7">
+        <v>120.76426693053899</v>
+      </c>
+      <c r="H5" s="7">
+        <v>109.23168598919401</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86.529342249587998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>99.453142326024</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>89.6729242903064</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>96.8517879575365</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>109.439413364954</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>98.4868865372313</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>82.4518558827176</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>139.155311205598</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>55.7333662882354</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>169.905044331382</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>45691</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>4.77826547460837</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>81.5751679892187</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>155.665084052089</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>88.7403960742175</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>146.189272910522</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>72.3362155352681</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>120.764266930539</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>109.231685989194</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>86.529342249588</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="n">
+      <c r="B6" s="6">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>87.3427613402266</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>166.240115836571</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>190.013010066191</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>72.0095099433852</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>131.629588294416</v>
-      </c>
-      <c r="H9" s="7" t="n">
+      <c r="C6" s="7">
+        <v>87.342761340226602</v>
+      </c>
+      <c r="D6" s="7">
+        <v>166.24011583657099</v>
+      </c>
+      <c r="E6" s="7">
+        <v>190.01301006619099</v>
+      </c>
+      <c r="F6" s="7">
+        <v>72.009509943385197</v>
+      </c>
+      <c r="G6" s="7">
+        <v>131.62958829441601</v>
+      </c>
+      <c r="H6" s="7">
         <v>105.239136610673</v>
       </c>
-      <c r="I9" s="7" t="n">
-        <v>78.0622072836105</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>102.48784689007</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>103.679188341931</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>88.9059938015199</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>120.928731280402</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>92.8947282622065</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>78.307898597557</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>110.002230673667</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="7">
+        <v>78.062207283610505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -652,7 +520,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -663,7 +531,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -674,18 +542,18 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -696,7 +564,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -707,7 +575,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -718,18 +586,18 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -740,7 +608,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -751,7 +619,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -762,7 +630,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -773,7 +641,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -784,7 +652,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -795,7 +663,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -806,7 +674,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -817,7 +685,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -828,7 +696,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -839,7 +707,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -850,7 +718,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -861,7 +729,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -872,7 +740,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -883,7 +751,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -894,7 +762,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -905,7 +773,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -916,7 +784,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -927,7 +795,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -938,7 +806,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -948,8 +816,10 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -960,7 +830,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -971,7 +841,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -982,7 +852,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -992,10 +862,8 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -1006,7 +874,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -1017,7 +885,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -1028,7 +896,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -1039,7 +907,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -1050,7 +918,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -1061,7 +929,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -1072,7 +940,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
@@ -1083,7 +951,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
@@ -1094,7 +962,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
@@ -1105,7 +973,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
@@ -1116,7 +984,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
@@ -1127,7 +995,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -1138,57 +1006,9 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="70" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>